--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\Documents\ENSAM\3A - Bristol\Robotic Systems\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61A4A8-6BD0-450A-8071-7F1E0239CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7656EBA4-6AB0-4B10-A709-61F623278579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8216E25C-A24B-4AD6-9FC1-220EFE9DF34B}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{8216E25C-A24B-4AD6-9FC1-220EFE9DF34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Angle</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>stand dev</t>
+  </si>
+  <si>
+    <t>Include the rotation experiment (PID and bang bang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usage of a rnage </t>
+  </si>
+  <si>
+    <t>Sensor Linearity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angle </t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -112,15 +133,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -132,6 +159,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -214,23 +256,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5075D8FF-A720-421E-AF80-CE3859848E9E}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +862,7 @@
       <c r="M6" s="4">
         <v>0.24</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="12">
         <f>AVERAGE(D6:M6)</f>
         <v>-0.56299999999999994</v>
       </c>
@@ -1049,7 +1119,7 @@
         <v>0.49311819633385318</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1098,7 +1168,7 @@
         <v>0.37525694900664713</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>0</v>
       </c>
@@ -1138,7 +1208,7 @@
       <c r="M18" s="7">
         <v>-0.04</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="12">
         <f>AVERAGE(D18:M18)</f>
         <v>0.36499999999999999</v>
       </c>
@@ -1147,9 +1217,272 @@
         <v>0.42740171059814708</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>90</v>
+      </c>
+      <c r="C28" s="9">
+        <v>80</v>
+      </c>
+      <c r="D28" s="9">
+        <v>70</v>
+      </c>
+      <c r="E28" s="9">
+        <v>60</v>
+      </c>
+      <c r="F28" s="9">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9">
+        <v>40</v>
+      </c>
+      <c r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9">
+        <v>20</v>
+      </c>
+      <c r="J28" s="9">
+        <v>10</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-10</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-20</v>
+      </c>
+      <c r="N28" s="9">
+        <v>-30</v>
+      </c>
+      <c r="O28" s="9">
+        <v>-40</v>
+      </c>
+      <c r="P28" s="9">
+        <v>-50</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>-60</v>
+      </c>
+      <c r="R28" s="9">
+        <v>-70</v>
+      </c>
+      <c r="S28" s="9">
+        <v>-80</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>407.59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="D29" s="2">
+        <v>209.95</v>
+      </c>
+      <c r="E29" s="2">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2">
+        <v>16</v>
+      </c>
+      <c r="L29" s="11">
+        <v>28</v>
+      </c>
+      <c r="M29" s="11">
+        <v>28</v>
+      </c>
+      <c r="N29" s="11">
+        <v>32</v>
+      </c>
+      <c r="O29" s="11">
+        <v>31</v>
+      </c>
+      <c r="P29" s="11">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>39</v>
+      </c>
+      <c r="R29" s="11">
+        <v>90.8</v>
+      </c>
+      <c r="S29" s="11">
+        <v>395.67</v>
+      </c>
+      <c r="T29" s="4">
+        <v>484.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>190.29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2">
+        <v>20.73</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11</v>
+      </c>
+      <c r="J30" s="2">
+        <v>12</v>
+      </c>
+      <c r="K30" s="2">
+        <v>12</v>
+      </c>
+      <c r="L30" s="11">
+        <v>23</v>
+      </c>
+      <c r="M30" s="11">
+        <v>25</v>
+      </c>
+      <c r="N30" s="11">
+        <v>32</v>
+      </c>
+      <c r="O30" s="11">
+        <v>36</v>
+      </c>
+      <c r="P30" s="11">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>266.64999999999998</v>
+      </c>
+      <c r="R30" s="11">
+        <v>371.67</v>
+      </c>
+      <c r="S30" s="11">
+        <v>450.21</v>
+      </c>
+      <c r="T30" s="4">
+        <v>554.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>28.13</v>
+      </c>
+      <c r="C31" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="D31" s="6">
+        <v>37.76</v>
+      </c>
+      <c r="E31" s="6">
+        <v>28.8</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K31" s="6">
+        <v>-0.36</v>
+      </c>
+      <c r="L31" s="6">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="M31" s="6">
+        <v>-1.75</v>
+      </c>
+      <c r="N31" s="6">
+        <v>-3.03</v>
+      </c>
+      <c r="O31" s="6">
+        <v>-4.43</v>
+      </c>
+      <c r="P31" s="6">
+        <v>-12.03</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-71.83</v>
+      </c>
+      <c r="R31" s="6">
+        <v>-92.62</v>
+      </c>
+      <c r="S31" s="6">
+        <v>-52.53</v>
+      </c>
+      <c r="T31" s="7">
+        <v>-65.84</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\Documents\ENSAM\3A - Bristol\Robotic Systems\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7656EBA4-6AB0-4B10-A709-61F623278579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCD254-27E4-4493-81EE-F2D7ADC211A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{8216E25C-A24B-4AD6-9FC1-220EFE9DF34B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Angle</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Distance Variation</t>
   </si>
 </sst>
 </file>
@@ -318,6 +321,3213 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$28:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$29:$T$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>407.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>395.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>484.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E71C-4620-BF25-985DA60AAD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$28:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$30:$T$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>190.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>266.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>371.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>450.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>554.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E71C-4620-BF25-985DA60AAD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$28:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$31:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>28.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-71.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-92.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-52.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-65.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E71C-4620-BF25-985DA60AAD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41521984"/>
+        <c:axId val="41510752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41521984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41510752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41510752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41521984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$N$14:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8590000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F957-400B-A310-4CA68304D9C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2066583712"/>
+        <c:axId val="2066579968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2066583712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066579968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2066579968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066583712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7079999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DBE-42B3-B2AD-EDB49DD55DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2061867648"/>
+        <c:axId val="2061869728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2061867648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061869728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061869728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061867648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE5FB89-E478-4C0A-8A4D-5AEF121518FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F852021-21F3-4503-8D64-4ED424964FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E377A6-9A64-4176-8495-6EEC45EFA89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -615,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5075D8FF-A720-421E-AF80-CE3859848E9E}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,8 +4695,256 @@
         <v>-65.84</v>
       </c>
     </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37">
+        <f>AVERAGE(D37:M37)</f>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O37">
+        <f>_xlfn.STDEV.S(D37:M37)</f>
+        <v>9.4973680564670149E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-0.22</v>
+      </c>
+      <c r="H38" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="2">
+        <f>AVERAGE(D38:M38)</f>
+        <v>-0.22199999999999998</v>
+      </c>
+      <c r="O38" s="2">
+        <f>_xlfn.STDEV.S(D38:M38)</f>
+        <v>5.7619441163551825E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.77</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-0.76</v>
+      </c>
+      <c r="G39" s="11">
+        <v>-0.62</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="2">
+        <f>AVERAGE(D39:M39)</f>
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="O39" s="2">
+        <f>_xlfn.STDEV.S(D39:M39)</f>
+        <v>0.66229147661735754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-1.57</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1.64</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-1.61</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-0.99</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="2">
+        <f>AVERAGE(D40:M40)</f>
+        <v>-1.6059999999999999</v>
+      </c>
+      <c r="O40" s="2">
+        <f>_xlfn.STDEV.S(D40:M40)</f>
+        <v>0.43558007300610163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>0</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>30</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-3.97</v>
+      </c>
+      <c r="E41" s="6">
+        <v>-3.37</v>
+      </c>
+      <c r="F41" s="6">
+        <v>-3.45</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-2.68</v>
+      </c>
+      <c r="H41" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="12">
+        <f>AVERAGE(D41:M41)</f>
+        <v>-2.8419999999999996</v>
+      </c>
+      <c r="O41" s="2">
+        <f>_xlfn.STDEV.S(D41:M41)</f>
+        <v>1.2614951446597022</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\Documents\ENSAM\3A - Bristol\Robotic Systems\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Famous\Documents\Robotics_Masters\NOTES\Robotic_Systems\RS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCD254-27E4-4493-81EE-F2D7ADC211A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15146078-86CD-443E-AC5C-C8558B03E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{8216E25C-A24B-4AD6-9FC1-220EFE9DF34B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{8216E25C-A24B-4AD6-9FC1-220EFE9DF34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Angle</t>
   </si>
@@ -115,6 +115,54 @@
   </si>
   <si>
     <t>Distance Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light_Tracking </t>
+  </si>
+  <si>
+    <t>Distance from Source</t>
+  </si>
+  <si>
+    <t>IR Height</t>
+  </si>
+  <si>
+    <t>Angle - Alpha(degrees)</t>
+  </si>
+  <si>
+    <t>Tine Elapsed(s)</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
   </si>
 </sst>
 </file>
@@ -287,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -304,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -361,7 +410,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -935,7 +984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41510752"/>
@@ -997,7 +1046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41521984"/>
@@ -1039,7 +1088,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1076,7 +1125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1090,7 +1139,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1127,7 +1176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1296,7 +1345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066579968"/>
@@ -1358,7 +1407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066583712"/>
@@ -1406,7 +1455,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1420,7 +1469,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1457,7 +1506,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1626,7 +1675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2061869728"/>
@@ -1688,7 +1737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2061867648"/>
@@ -1736,7 +1785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3528,8 +3577,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A710DFCB-D8FF-48C7-BEEC-661FB7BC206B}" name="Table1" displayName="Table1" ref="A44:J52" totalsRowShown="0">
+  <autoFilter ref="A44:J52" xr:uid="{A710DFCB-D8FF-48C7-BEEC-661FB7BC206B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{46E0E1EC-FF77-4040-896D-EA505643B8F5}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{5CD028DF-B80B-413D-A9E0-657F3C32B814}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{8EBB361E-57F2-47A1-A6AA-246022CBEBFB}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{AB38F2E4-6F7A-418B-8E39-AA0802173448}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{53636D60-7758-44C9-B254-05EFDF3D7E13}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{33418470-90A6-4352-B02F-88CF920DEB1E}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{625951A2-724F-471A-8104-1D82661E42DA}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{553EFC4E-9436-498D-B66E-A2226A9890FB}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{ACE78536-4851-4854-94EA-8673FD897527}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{FE7D2C8B-A2DE-44F8-8460-63D359C45E4D}" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3825,20 +3893,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5075D8FF-A720-421E-AF80-CE3859848E9E}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-30</v>
       </c>
@@ -3934,7 +4013,7 @@
         <v>4.2451332919787896</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>-15</v>
       </c>
@@ -3983,7 +4062,7 @@
         <v>0.81242025249661609</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -4032,7 +4111,7 @@
         <v>0.70731416876331077</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4081,7 +4160,7 @@
         <v>0.75611654010623419</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>30</v>
       </c>
@@ -4130,12 +4209,12 @@
         <v>1.6999071870088802</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -4231,7 +4310,7 @@
         <v>0.70731416876331077</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -4280,7 +4359,7 @@
         <v>0.68702983923553052</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -4329,7 +4408,7 @@
         <v>0.49311819633385318</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -4378,7 +4457,7 @@
         <v>0.37525694900664713</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>0</v>
       </c>
@@ -4427,27 +4506,27 @@
         <v>0.42740171059814708</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
@@ -4509,7 +4588,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
@@ -4571,7 +4650,7 @@
         <v>484.78</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
@@ -4633,7 +4712,7 @@
         <v>554.14</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
@@ -4695,12 +4774,12 @@
         <v>-65.84</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -4786,7 +4865,7 @@
         <v>9.4973680564670149E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4825,7 +4904,7 @@
         <v>5.7619441163551825E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -4864,7 +4943,7 @@
         <v>0.66229147661735754</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -4903,7 +4982,7 @@
         <v>0.43558007300610163</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -4942,9 +5021,254 @@
         <v>1.2614951446597022</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2400</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+      <c r="G47">
+        <v>63</v>
+      </c>
+      <c r="H47">
+        <v>26.3</v>
+      </c>
+      <c r="J47">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2100</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
+      </c>
+      <c r="F48">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <v>24.5</v>
+      </c>
+      <c r="J48">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1800</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>59</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="J49">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1500</v>
+      </c>
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>74</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1200</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>900</v>
+      </c>
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>18.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>